--- a/demo1.xlsx
+++ b/demo1.xlsx
@@ -112,22 +112,22 @@
     <t>partner</t>
   </si>
   <si>
-    <t>adung</t>
-  </si>
-  <si>
-    <t>MJ9874</t>
-  </si>
-  <si>
-    <t>MJ9873</t>
-  </si>
-  <si>
-    <t>MJ9872</t>
-  </si>
-  <si>
     <t>phone Case Type</t>
   </si>
   <si>
     <t>glass</t>
+  </si>
+  <si>
+    <t>ahieu</t>
+  </si>
+  <si>
+    <t>MJ10</t>
+  </si>
+  <si>
+    <t>MJ11</t>
+  </si>
+  <si>
+    <t>MJ12</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>43713</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -1066,13 +1066,13 @@
         <v>43713</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -1113,13 +1113,13 @@
         <v>43713</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>

--- a/demo1.xlsx
+++ b/demo1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -128,12 +133,15 @@
   </si>
   <si>
     <t>MJ12</t>
+  </si>
+  <si>
+    <t>adung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,7 +943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -945,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1121,7 @@
         <v>43713</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
